--- a/acm/rules/drools-ocr-rules.xlsx
+++ b/acm/rules/drools-ocr-rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladimir.cherepnalko\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ArkCase\acm-services\acm-service-media-engine\src\test\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BA7FA3-26D7-4C8E-A7DB-A88BEB60A7A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9508EE-A896-42F7-9E1F-BE280DF3F4D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,15 +123,9 @@
     <t>OCR Rules</t>
   </si>
   <si>
-    <t>com.armedia.acm.ocr.model.OCR</t>
-  </si>
-  <si>
     <t>RuleTable OCR Rules</t>
   </si>
   <si>
-    <t>$ocr: OCR</t>
-  </si>
-  <si>
     <t>eval(evalSpring("$param", $ocr))</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>setRemoteId, 'ocr-' + dateFormat('yyyyMMddHHmmssSSS') + '-' + $ocr.getId()</t>
+  </si>
+  <si>
+    <t>com.armedia.acm.services.mediaengine.model.MediaEngine</t>
+  </si>
+  <si>
+    <t>$ocr: MediaEngine</t>
   </si>
 </sst>
 </file>
@@ -824,19 +824,19 @@
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125"/>
-    <col min="2" max="2" width="24.28515625"/>
-    <col min="3" max="3" width="50.140625"/>
-    <col min="4" max="4" width="100.42578125"/>
-    <col min="5" max="5" width="27.7109375"/>
+    <col min="1" max="1" width="19.44140625"/>
+    <col min="2" max="2" width="24.33203125"/>
+    <col min="3" max="3" width="50.109375"/>
+    <col min="4" max="4" width="100.44140625"/>
+    <col min="5" max="5" width="27.6640625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -846,7 +846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
@@ -856,17 +856,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
@@ -896,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
@@ -916,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
@@ -946,7 +946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="8" t="s">
@@ -956,15 +956,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
@@ -974,25 +974,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>14</v>
       </c>
@@ -1006,10 +1006,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>18</v>
@@ -1018,19 +1018,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
         <v>20</v>
@@ -1039,52 +1039,52 @@
         <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1102,7 +1102,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1115,7 +1115,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
